--- a/notebooks/combined_videos_sorted.xlsx
+++ b/notebooks/combined_videos_sorted.xlsx
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/blank-profile-picture-973460_1280.webp</t>
+          <t>/home/harshit/Desktop/hi/influencer_analysis/notebooks/emptyprofile.jpg</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
